--- a/ExtraFeaturesPraha.xlsx
+++ b/ExtraFeaturesPraha.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JachymDvorak\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JachymDvorak\Documents\GitHub\Tym09_devs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7ED89DC-AFD1-4577-BD81-E99B48A4C93F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A997DADD-9546-4452-8E94-F121BD6701E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B8E81439-5C3B-3C46-8C87-6C93425320DF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="75">
   <si>
     <t>Praha 1</t>
   </si>
@@ -255,18 +255,29 @@
   </si>
   <si>
     <t>podil_zastavenych_ploch</t>
+  </si>
+  <si>
+    <t>rozloha</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -327,23 +338,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="normální 2 9" xfId="3" xr:uid="{FCB24B1A-204B-E14D-ACD7-F052B558A3AF}"/>
     <cellStyle name="normální 5" xfId="2" xr:uid="{6480F2BF-795F-E344-BAC0-4E8D976C9373}"/>
+    <cellStyle name="normální 5 2" xfId="4" xr:uid="{61ABC91C-D02A-4CE3-AA98-69B45BD6284F}"/>
     <cellStyle name="normální_A" xfId="1" xr:uid="{E72708AC-6F50-7C4D-B4D9-D5198C3B7F09}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -656,2915 +671,3090 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{864413F4-B43E-3047-8960-F164215A1E77}">
-  <dimension ref="A1:P58"/>
+  <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59:XFD59"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="24.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.25" customWidth="1"/>
+    <col min="3" max="3" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:17">
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="16.5">
+    <row r="2" spans="1:17" ht="16.5">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="5">
+        <v>553.84</v>
+      </c>
+      <c r="C2" s="3">
         <v>29563</v>
       </c>
-      <c r="C2" s="3">
+      <c r="D2" s="3">
         <v>5687</v>
       </c>
-      <c r="D2" s="3">
+      <c r="E2" s="3">
         <v>13</v>
       </c>
-      <c r="E2" s="3">
+      <c r="F2" s="3">
         <v>9</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="2">
         <v>53.72</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <v>152</v>
       </c>
-      <c r="H2" s="2">
+      <c r="I2" s="2">
         <v>274</v>
       </c>
-      <c r="I2" s="2">
+      <c r="J2" s="2">
         <v>0.31</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>1.03</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>7</v>
       </c>
-      <c r="L2" s="2">
+      <c r="M2" s="2">
         <v>15.1</v>
       </c>
-      <c r="M2" s="2">
+      <c r="N2" s="2">
         <v>71.88</v>
       </c>
-      <c r="N2" s="2">
+      <c r="O2" s="2">
         <v>16.18</v>
       </c>
-      <c r="O2" s="2">
+      <c r="P2" s="2">
         <v>27.49</v>
       </c>
-      <c r="P2" s="2">
+      <c r="Q2" s="2">
         <v>131.03</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="16.5">
+    <row r="3" spans="1:17" ht="16.5">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="5">
+        <v>418.49</v>
+      </c>
+      <c r="C3" s="3">
         <v>50363</v>
       </c>
-      <c r="C3" s="3">
+      <c r="D3" s="3">
         <v>11908</v>
       </c>
-      <c r="D3" s="3">
+      <c r="E3" s="3">
         <v>13</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F3" s="3">
         <v>18</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2">
         <v>117.49</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H3" s="2">
         <v>129.31</v>
       </c>
-      <c r="H3" s="2">
+      <c r="I3" s="2">
         <v>40</v>
       </c>
-      <c r="I3" s="2">
+      <c r="J3" s="2">
         <v>0.23</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>0.96</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
         <v>10</v>
       </c>
-      <c r="L3" s="2">
+      <c r="M3" s="2">
         <v>12.79</v>
       </c>
-      <c r="M3" s="2">
+      <c r="N3" s="2">
         <v>48.67</v>
       </c>
-      <c r="N3" s="2">
+      <c r="O3" s="2">
         <v>16.420000000000002</v>
       </c>
-      <c r="O3" s="2">
+      <c r="P3" s="2">
         <v>32.35</v>
       </c>
-      <c r="P3" s="2">
+      <c r="Q3" s="2">
         <v>68.73</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="16.5">
+    <row r="4" spans="1:17" ht="16.5">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="5">
+        <v>648.21</v>
+      </c>
+      <c r="C4" s="3">
         <v>76041</v>
       </c>
-      <c r="C4" s="3">
+      <c r="D4" s="3">
         <v>16353</v>
       </c>
-      <c r="D4" s="3">
+      <c r="E4" s="3">
         <v>21</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F4" s="3">
         <v>12</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="2">
         <v>111.33</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <v>141.57</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="2">
         <v>32</v>
       </c>
-      <c r="I4" s="2">
+      <c r="J4" s="2">
         <v>2.8</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
         <v>2.71</v>
       </c>
-      <c r="K4" s="2">
+      <c r="L4" s="2">
         <v>26</v>
       </c>
-      <c r="L4" s="2">
+      <c r="M4" s="2">
         <v>19.18</v>
       </c>
-      <c r="M4" s="2">
+      <c r="N4" s="2">
         <v>50.19</v>
       </c>
-      <c r="N4" s="2">
+      <c r="O4" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O4" s="2">
+      <c r="P4" s="2">
         <v>21.94</v>
       </c>
-      <c r="P4" s="2">
+      <c r="Q4" s="2">
         <v>62.4</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="16.5">
+    <row r="5" spans="1:17" ht="16.5">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="6">
+        <v>2420.04</v>
+      </c>
+      <c r="C5" s="3">
         <v>132068</v>
       </c>
-      <c r="C5" s="3">
+      <c r="D5" s="3">
         <v>19068</v>
       </c>
-      <c r="D5" s="3">
+      <c r="E5" s="3">
         <v>36</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F5" s="3">
         <v>32</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <v>52.93</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <v>173.95</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
         <v>24</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J5" s="2">
         <v>3.26</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <v>4.38</v>
       </c>
-      <c r="K5" s="2">
+      <c r="L5" s="2">
         <v>91</v>
       </c>
-      <c r="L5" s="2">
+      <c r="M5" s="2">
         <v>22.2</v>
       </c>
-      <c r="M5" s="2">
+      <c r="N5" s="2">
         <v>39.31</v>
       </c>
-      <c r="N5" s="2">
+      <c r="O5" s="2">
         <v>11.27</v>
       </c>
-      <c r="O5" s="2">
+      <c r="P5" s="2">
         <v>23.88</v>
       </c>
-      <c r="P5" s="2">
+      <c r="Q5" s="2">
         <v>122.37</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="16.5">
+    <row r="6" spans="1:17" ht="16.5">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="5">
+        <v>809.77</v>
+      </c>
+      <c r="C6" s="3">
         <v>10023</v>
       </c>
-      <c r="C6" s="3">
+      <c r="D6" s="3">
         <v>2341</v>
       </c>
-      <c r="D6" s="3">
+      <c r="E6" s="3">
         <v>4</v>
       </c>
-      <c r="E6" s="3">
+      <c r="F6" s="3">
         <v>2</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="2">
         <v>11.44</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <v>72.069999999999993</v>
       </c>
-      <c r="H6" s="2">
-        <v>1</v>
-      </c>
       <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2">
         <v>17.059999999999999</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K6" s="2">
         <v>3.2</v>
       </c>
-      <c r="K6" s="2">
+      <c r="L6" s="2">
         <v>15</v>
       </c>
-      <c r="L6" s="2">
+      <c r="M6" s="2">
         <v>29.76</v>
       </c>
-      <c r="M6" s="2">
+      <c r="N6" s="2">
         <v>5.75</v>
       </c>
-      <c r="N6" s="2">
+      <c r="O6" s="2">
         <v>0.1</v>
       </c>
-      <c r="O6" s="2">
+      <c r="P6" s="2">
         <v>5.03</v>
       </c>
-      <c r="P6" s="2">
+      <c r="Q6" s="2">
         <v>340.46</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="16.5">
+    <row r="7" spans="1:17" ht="16.5">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="6">
+        <v>2749.79</v>
+      </c>
+      <c r="C7" s="3">
         <v>88225</v>
       </c>
-      <c r="C7" s="3">
+      <c r="D7" s="3">
         <v>17000</v>
       </c>
-      <c r="D7" s="3">
+      <c r="E7" s="3">
         <v>31</v>
       </c>
-      <c r="E7" s="3">
+      <c r="F7" s="3">
         <v>21</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>29.96</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>108.37</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>30</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>7.56</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>4.59</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>65</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>24.57</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>49.44</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>7.95</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>22.99</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>156.11000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="16.5">
+    <row r="8" spans="1:17" ht="16.5">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="5">
+        <v>759.07</v>
+      </c>
+      <c r="C8" s="3">
         <v>3696</v>
       </c>
-      <c r="C8" s="3">
+      <c r="D8" s="3">
         <v>298</v>
       </c>
-      <c r="D8" s="3">
-        <v>1</v>
-      </c>
       <c r="E8" s="3">
         <v>1</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
         <v>4.4800000000000004</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H8" s="2">
         <v>72.209999999999994</v>
       </c>
-      <c r="H8" s="2">
-        <v>1</v>
-      </c>
       <c r="I8" s="2">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2">
         <v>34.700000000000003</v>
       </c>
-      <c r="J8" s="2">
+      <c r="K8" s="2">
         <v>6.45</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L8" s="2">
+      <c r="M8" s="2">
         <v>8.08</v>
       </c>
-      <c r="M8" s="2">
+      <c r="N8" s="2">
         <v>0.37</v>
       </c>
-      <c r="N8" s="2">
+      <c r="O8" s="2">
         <v>63.83</v>
       </c>
-      <c r="O8" s="2">
+      <c r="P8" s="2">
         <v>7.07</v>
       </c>
-      <c r="P8" s="2">
+      <c r="Q8" s="2">
         <v>538.62</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="16.5">
+    <row r="9" spans="1:17" ht="16.5">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="6">
+        <v>4156.1099999999997</v>
+      </c>
+      <c r="C9" s="3">
         <v>107213</v>
       </c>
-      <c r="C9" s="3">
+      <c r="D9" s="3">
         <v>15548</v>
       </c>
-      <c r="D9" s="3">
+      <c r="E9" s="3">
         <v>38</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>22</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G9" s="2">
         <v>24.01</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H9" s="2">
         <v>139.38999999999999</v>
       </c>
-      <c r="H9" s="2">
+      <c r="I9" s="2">
         <v>45</v>
       </c>
-      <c r="I9" s="2">
+      <c r="J9" s="2">
         <v>7.04</v>
       </c>
-      <c r="J9" s="2">
+      <c r="K9" s="2">
         <v>5.87</v>
       </c>
-      <c r="K9" s="2">
+      <c r="L9" s="2">
         <v>67</v>
       </c>
-      <c r="L9" s="2">
+      <c r="M9" s="2">
         <v>20.39</v>
       </c>
-      <c r="M9" s="2">
+      <c r="N9" s="2">
         <v>70.59</v>
       </c>
-      <c r="N9" s="2">
+      <c r="O9" s="2">
         <v>2.84</v>
       </c>
-      <c r="O9" s="2">
+      <c r="P9" s="2">
         <v>23.94</v>
       </c>
-      <c r="P9" s="2">
+      <c r="Q9" s="2">
         <v>252.46</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="16.5">
+    <row r="10" spans="1:17" ht="16.5">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="5">
+        <v>247.47</v>
+      </c>
+      <c r="C10" s="3">
         <v>1509</v>
       </c>
-      <c r="C10" s="3">
+      <c r="D10" s="3">
         <v>224</v>
       </c>
-      <c r="D10" s="3">
-        <v>1</v>
-      </c>
       <c r="E10" s="3">
         <v>1</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
         <v>5.68</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H10" s="2">
         <v>79.930000000000007</v>
       </c>
-      <c r="H10" s="2">
-        <v>1</v>
-      </c>
       <c r="I10" s="2">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2">
         <v>71.78</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="K10" s="2">
-        <v>1</v>
-      </c>
       <c r="L10" s="2">
+        <v>1</v>
+      </c>
+      <c r="M10" s="2">
         <v>22.79</v>
       </c>
-      <c r="M10" s="2">
+      <c r="N10" s="2">
         <v>0</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="O10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="O10" s="2">
+      <c r="P10" s="2">
         <v>5.63</v>
       </c>
-      <c r="P10" s="2">
+      <c r="Q10" s="2">
         <v>365.47</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="16.5">
+    <row r="11" spans="1:17" ht="16.5">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="5">
+        <v>368.08</v>
+      </c>
+      <c r="C11" s="3">
         <v>3372</v>
       </c>
-      <c r="C11" s="3">
+      <c r="D11" s="3">
         <v>1093</v>
       </c>
-      <c r="D11" s="3">
-        <v>1</v>
-      </c>
       <c r="E11" s="3">
         <v>1</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
         <v>9.02</v>
       </c>
-      <c r="G11" s="2">
+      <c r="H11" s="2">
         <v>80.95</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I11" s="2">
+      <c r="J11" s="2">
         <v>10.67</v>
       </c>
-      <c r="J11" s="2">
+      <c r="K11" s="2">
         <v>4.47</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L11" s="2">
+      <c r="M11" s="2">
         <v>17.98</v>
       </c>
-      <c r="M11" s="2">
+      <c r="N11" s="2">
         <v>1.1100000000000001</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="O11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="O11" s="2">
+      <c r="P11" s="2">
         <v>3.35</v>
       </c>
-      <c r="P11" s="2">
+      <c r="Q11" s="2">
         <v>342.48</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="16.5">
+    <row r="12" spans="1:17" ht="16.5">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="5">
+        <v>327.47000000000003</v>
+      </c>
+      <c r="C12" s="3">
         <v>693</v>
       </c>
-      <c r="C12" s="3">
+      <c r="D12" s="3">
         <v>101</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="2">
         <v>2.17</v>
       </c>
-      <c r="G12" s="2">
+      <c r="H12" s="2">
         <v>94.74</v>
       </c>
-      <c r="H12" s="2">
-        <v>1</v>
-      </c>
       <c r="I12" s="2">
+        <v>1</v>
+      </c>
+      <c r="J12" s="2">
         <v>159.09</v>
       </c>
-      <c r="J12" s="2">
+      <c r="K12" s="2">
         <v>17.8</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="L12" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L12" s="2">
+      <c r="M12" s="2">
         <v>24.18</v>
       </c>
-      <c r="M12" s="2">
+      <c r="N12" s="2">
         <v>0</v>
       </c>
-      <c r="N12" s="2">
+      <c r="O12" s="2">
         <v>0.04</v>
       </c>
-      <c r="O12" s="2">
+      <c r="P12" s="2">
         <v>67.55</v>
       </c>
-      <c r="P12" s="2">
+      <c r="Q12" s="2">
         <v>481.33</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="16.5">
+    <row r="13" spans="1:17" ht="16.5">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="5">
+        <v>513.55999999999995</v>
+      </c>
+      <c r="C13" s="3">
         <v>7225</v>
       </c>
-      <c r="C13" s="3">
+      <c r="D13" s="3">
         <v>1185</v>
       </c>
-      <c r="D13" s="3">
+      <c r="E13" s="3">
         <v>2</v>
       </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-      <c r="F13" s="2">
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
         <v>13.61</v>
       </c>
-      <c r="G13" s="2">
+      <c r="H13" s="2">
         <v>111.13</v>
       </c>
-      <c r="H13" s="2">
+      <c r="I13" s="2">
         <v>3</v>
       </c>
-      <c r="I13" s="2">
+      <c r="J13" s="2">
         <v>66.239999999999995</v>
       </c>
-      <c r="J13" s="2">
+      <c r="K13" s="2">
         <v>2.63</v>
       </c>
-      <c r="K13" s="2">
+      <c r="L13" s="2">
         <v>2</v>
       </c>
-      <c r="L13" s="2">
+      <c r="M13" s="2">
         <v>23.16</v>
       </c>
-      <c r="M13" s="2">
+      <c r="N13" s="2">
         <v>0</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="O13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="O13" s="2">
+      <c r="P13" s="2">
         <v>14.32</v>
       </c>
-      <c r="P13" s="2">
+      <c r="Q13" s="2">
         <v>276.47000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="16.5">
+    <row r="14" spans="1:17" ht="16.5">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="5">
+        <v>709.5</v>
+      </c>
+      <c r="C14" s="3">
         <v>45226</v>
       </c>
-      <c r="C14" s="3">
+      <c r="D14" s="3">
         <v>8085</v>
       </c>
-      <c r="D14" s="3">
+      <c r="E14" s="3">
         <v>11</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>7</v>
       </c>
-      <c r="F14" s="2">
+      <c r="G14" s="2">
         <v>60.09</v>
       </c>
-      <c r="G14" s="2">
+      <c r="H14" s="2">
         <v>110.55</v>
       </c>
-      <c r="H14" s="2">
+      <c r="I14" s="2">
         <v>44</v>
       </c>
-      <c r="I14" s="2">
+      <c r="J14" s="2">
         <v>2.88</v>
       </c>
-      <c r="J14" s="2">
+      <c r="K14" s="2">
         <v>6.45</v>
       </c>
-      <c r="K14" s="2">
+      <c r="L14" s="2">
         <v>20</v>
       </c>
-      <c r="L14" s="2">
+      <c r="M14" s="2">
         <v>19.63</v>
       </c>
-      <c r="M14" s="2">
+      <c r="N14" s="2">
         <v>117.21</v>
       </c>
-      <c r="N14" s="2">
+      <c r="O14" s="2">
         <v>2.1</v>
       </c>
-      <c r="O14" s="2">
+      <c r="P14" s="2">
         <v>29.2</v>
       </c>
-      <c r="P14" s="2">
+      <c r="Q14" s="2">
         <v>100.54</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="16.5">
+    <row r="15" spans="1:17" ht="16.5">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="5">
+        <v>337.14</v>
+      </c>
+      <c r="C15" s="3">
         <v>1426</v>
       </c>
-      <c r="C15" s="3">
+      <c r="D15" s="3">
         <v>211</v>
-      </c>
-      <c r="D15" s="3">
-        <v>2</v>
       </c>
       <c r="E15" s="3">
         <v>2</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="3">
+        <v>2</v>
+      </c>
+      <c r="G15" s="2">
         <v>3.68</v>
       </c>
-      <c r="G15" s="2">
+      <c r="H15" s="2">
         <v>75.94</v>
       </c>
-      <c r="H15" s="2">
+      <c r="I15" s="2">
         <v>3</v>
       </c>
-      <c r="I15" s="2">
+      <c r="J15" s="2">
         <v>79.27</v>
       </c>
-      <c r="J15" s="2">
+      <c r="K15" s="2">
         <v>36.93</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="L15" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L15" s="2">
+      <c r="M15" s="2">
         <v>17.079999999999998</v>
       </c>
-      <c r="M15" s="2">
+      <c r="N15" s="2">
         <v>7.76</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="O15" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="O15" s="2">
+      <c r="P15" s="2">
         <v>17.95</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>1320.29</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="16.5">
+    <row r="16" spans="1:17" ht="16.5">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="6">
+        <v>2179.4</v>
+      </c>
+      <c r="C16" s="3">
         <v>106218</v>
       </c>
-      <c r="C16" s="3">
+      <c r="D16" s="3">
         <v>14340</v>
       </c>
-      <c r="D16" s="3">
+      <c r="E16" s="3">
         <v>37</v>
       </c>
-      <c r="E16" s="3">
+      <c r="F16" s="3">
         <v>22</v>
       </c>
-      <c r="F16" s="2">
+      <c r="G16" s="2">
         <v>47.27</v>
       </c>
-      <c r="G16" s="2">
+      <c r="H16" s="2">
         <v>147.69</v>
       </c>
-      <c r="H16" s="2">
+      <c r="I16" s="2">
         <v>29</v>
       </c>
-      <c r="I16" s="2">
+      <c r="J16" s="2">
         <v>5.54</v>
       </c>
-      <c r="J16" s="2">
+      <c r="K16" s="2">
         <v>3.38</v>
       </c>
-      <c r="K16" s="2">
+      <c r="L16" s="2">
         <v>59</v>
       </c>
-      <c r="L16" s="2">
+      <c r="M16" s="2">
         <v>22.92</v>
       </c>
-      <c r="M16" s="2">
+      <c r="N16" s="2">
         <v>40.700000000000003</v>
       </c>
-      <c r="N16" s="2">
+      <c r="O16" s="2">
         <v>2.35</v>
       </c>
-      <c r="O16" s="2">
+      <c r="P16" s="2">
         <v>14.09</v>
       </c>
-      <c r="P16" s="2">
+      <c r="Q16" s="2">
         <v>111.32</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="16.5">
+    <row r="17" spans="1:17" ht="16.5">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="5">
+        <v>338.07</v>
+      </c>
+      <c r="C17" s="3">
         <v>1754</v>
       </c>
-      <c r="C17" s="3">
+      <c r="D17" s="3">
         <v>324</v>
       </c>
-      <c r="D17" s="3">
-        <v>1</v>
-      </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="2">
+      <c r="G17" s="2">
         <v>4.25</v>
       </c>
-      <c r="G17" s="2">
+      <c r="H17" s="2">
         <v>55.48</v>
       </c>
-      <c r="H17" s="2">
-        <v>1</v>
-      </c>
       <c r="I17" s="2">
+        <v>1</v>
+      </c>
+      <c r="J17" s="2">
         <v>5.0599999999999996</v>
       </c>
-      <c r="J17" s="2">
+      <c r="K17" s="2">
         <v>14.91</v>
       </c>
-      <c r="K17" s="2">
-        <v>1</v>
-      </c>
       <c r="L17" s="2">
+        <v>1</v>
+      </c>
+      <c r="M17" s="2">
         <v>0.78</v>
       </c>
-      <c r="M17" s="2">
+      <c r="N17" s="2">
         <v>0.97</v>
       </c>
-      <c r="N17" s="2">
+      <c r="O17" s="2">
         <v>12.37</v>
       </c>
-      <c r="O17" s="2">
+      <c r="P17" s="2">
         <v>29.63</v>
       </c>
-      <c r="P17" s="2">
+      <c r="Q17" s="2">
         <v>441.21</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="16.5">
+    <row r="18" spans="1:17" ht="16.5">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="5">
+        <v>737.93</v>
+      </c>
+      <c r="C18" s="3">
         <v>3647</v>
       </c>
-      <c r="C18" s="3">
+      <c r="D18" s="3">
         <v>297</v>
       </c>
-      <c r="D18" s="3">
-        <v>1</v>
-      </c>
       <c r="E18" s="3">
         <v>1</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G18" s="2">
+      <c r="H18" s="2">
         <v>80</v>
       </c>
-      <c r="H18" s="2">
+      <c r="I18" s="2">
         <v>2</v>
       </c>
-      <c r="I18" s="2">
+      <c r="J18" s="2">
         <v>12.39</v>
       </c>
-      <c r="J18" s="2">
+      <c r="K18" s="2">
         <v>4.91</v>
       </c>
-      <c r="K18" s="2">
+      <c r="L18" s="2">
         <v>5</v>
       </c>
-      <c r="L18" s="2">
+      <c r="M18" s="2">
         <v>8.48</v>
       </c>
-      <c r="M18" s="2">
+      <c r="N18" s="2">
         <v>0.69</v>
       </c>
-      <c r="N18" s="2">
+      <c r="O18" s="2">
         <v>19.84</v>
       </c>
-      <c r="O18" s="2">
+      <c r="P18" s="2">
         <v>22.73</v>
       </c>
-      <c r="P18" s="2">
+      <c r="Q18" s="2">
         <v>387.12</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="16.5">
+    <row r="19" spans="1:17" ht="16.5">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="5">
+        <v>498.9</v>
+      </c>
+      <c r="C19" s="3">
         <v>4801</v>
       </c>
-      <c r="C19" s="3">
+      <c r="D19" s="3">
         <v>574</v>
       </c>
-      <c r="D19" s="3">
+      <c r="E19" s="3">
         <v>4</v>
       </c>
-      <c r="E19" s="3">
-        <v>1</v>
-      </c>
-      <c r="F19" s="2">
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2">
         <v>8.0299999999999994</v>
       </c>
-      <c r="G19" s="2">
+      <c r="H19" s="2">
         <v>78.81</v>
       </c>
-      <c r="H19" s="2">
-        <v>1</v>
-      </c>
       <c r="I19" s="2">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2">
         <v>29.78</v>
       </c>
-      <c r="J19" s="2">
+      <c r="K19" s="2">
         <v>4.6900000000000004</v>
       </c>
-      <c r="K19" s="2">
-        <v>1</v>
-      </c>
       <c r="L19" s="2">
+        <v>1</v>
+      </c>
+      <c r="M19" s="2">
         <v>4.88</v>
       </c>
-      <c r="M19" s="2">
+      <c r="N19" s="2">
         <v>0</v>
       </c>
-      <c r="N19" s="2" t="s">
+      <c r="O19" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="O19" s="2">
+      <c r="P19" s="2">
         <v>13.55</v>
       </c>
-      <c r="P19" s="2">
+      <c r="Q19" s="2">
         <v>346.84</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="16.5">
+    <row r="20" spans="1:17" ht="16.5">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="6">
+        <v>1331.04</v>
+      </c>
+      <c r="C20" s="3">
         <v>60601</v>
       </c>
-      <c r="C20" s="3">
+      <c r="D20" s="3">
         <v>12443</v>
       </c>
-      <c r="D20" s="3">
+      <c r="E20" s="3">
         <v>15</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>11</v>
       </c>
-      <c r="F20" s="2">
+      <c r="G20" s="2">
         <v>42.03</v>
       </c>
-      <c r="G20" s="2">
+      <c r="H20" s="2">
         <v>122.57</v>
       </c>
-      <c r="H20" s="2">
+      <c r="I20" s="2">
         <v>11</v>
       </c>
-      <c r="I20" s="2">
+      <c r="J20" s="2">
         <v>3.46</v>
       </c>
-      <c r="J20" s="2">
+      <c r="K20" s="2">
         <v>2.73</v>
       </c>
-      <c r="K20" s="2">
+      <c r="L20" s="2">
         <v>63</v>
       </c>
-      <c r="L20" s="2">
+      <c r="M20" s="2">
         <v>18.72</v>
       </c>
-      <c r="M20" s="2">
+      <c r="N20" s="2">
         <v>30.66</v>
       </c>
-      <c r="N20" s="2">
+      <c r="O20" s="2">
         <v>8.3800000000000008</v>
       </c>
-      <c r="O20" s="2">
+      <c r="P20" s="2">
         <v>18.079999999999998</v>
       </c>
-      <c r="P20" s="2">
+      <c r="Q20" s="2">
         <v>141.88</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="16.5">
+    <row r="21" spans="1:17" ht="16.5">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="6">
+        <v>1860.47</v>
+      </c>
+      <c r="C21" s="3">
         <v>110571</v>
       </c>
-      <c r="C21" s="3">
+      <c r="D21" s="3">
         <v>16651</v>
       </c>
-      <c r="D21" s="3">
+      <c r="E21" s="3">
         <v>26</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>20</v>
       </c>
-      <c r="F21" s="2">
+      <c r="G21" s="2">
         <v>58.51</v>
       </c>
-      <c r="G21" s="2">
+      <c r="H21" s="2">
         <v>171.25</v>
       </c>
-      <c r="H21" s="2">
+      <c r="I21" s="2">
         <v>19</v>
       </c>
-      <c r="I21" s="2">
+      <c r="J21" s="2">
         <v>3.17</v>
       </c>
-      <c r="J21" s="2">
+      <c r="K21" s="2">
         <v>5.16</v>
       </c>
-      <c r="K21" s="2">
+      <c r="L21" s="2">
         <v>71</v>
       </c>
-      <c r="L21" s="2">
+      <c r="M21" s="2">
         <v>16.54</v>
       </c>
-      <c r="M21" s="2">
+      <c r="N21" s="2">
         <v>27.09</v>
       </c>
-      <c r="N21" s="2">
+      <c r="O21" s="2">
         <v>6.28</v>
       </c>
-      <c r="O21" s="2">
+      <c r="P21" s="2">
         <v>26.05</v>
       </c>
-      <c r="P21" s="2">
+      <c r="Q21" s="2">
         <v>119.02</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="16.5">
+    <row r="22" spans="1:17" ht="16.5">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="5">
+        <v>979.37</v>
+      </c>
+      <c r="C22" s="3">
         <v>77324</v>
       </c>
-      <c r="C22" s="3">
+      <c r="D22" s="3">
         <v>9743</v>
       </c>
-      <c r="D22" s="3">
+      <c r="E22" s="3">
         <v>20</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>16</v>
       </c>
-      <c r="F22" s="2">
+      <c r="G22" s="2">
         <v>78.62</v>
       </c>
-      <c r="G22" s="2">
+      <c r="H22" s="2">
         <v>153.24</v>
       </c>
-      <c r="H22" s="2">
+      <c r="I22" s="2">
         <v>17</v>
       </c>
-      <c r="I22" s="2">
+      <c r="J22" s="2">
         <v>0.63</v>
       </c>
-      <c r="J22" s="2">
+      <c r="K22" s="2">
         <v>0.96</v>
       </c>
-      <c r="K22" s="2">
+      <c r="L22" s="2">
         <v>65</v>
       </c>
-      <c r="L22" s="2">
+      <c r="M22" s="2">
         <v>29.56</v>
       </c>
-      <c r="M22" s="2">
+      <c r="N22" s="2">
         <v>28.4</v>
       </c>
-      <c r="N22" s="2">
+      <c r="O22" s="2">
         <v>16.64</v>
       </c>
-      <c r="O22" s="2">
+      <c r="P22" s="2">
         <v>5.04</v>
       </c>
-      <c r="P22" s="2">
+      <c r="Q22" s="2">
         <v>69.62</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="16.5">
+    <row r="23" spans="1:17" ht="16.5">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="5">
+        <v>343.5</v>
+      </c>
+      <c r="C23" s="3">
         <v>1117</v>
       </c>
-      <c r="C23" s="3">
+      <c r="D23" s="3">
         <v>105</v>
       </c>
-      <c r="D23" s="3">
+      <c r="E23" s="3">
         <v>2</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="2">
+      <c r="G23" s="2">
         <v>2.92</v>
       </c>
-      <c r="G23" s="2">
+      <c r="H23" s="2">
         <v>58.76</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="I23" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I23" s="2">
+      <c r="J23" s="2">
         <v>26.46</v>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="K23" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="K23" s="2">
+      <c r="L23" s="2">
         <v>3</v>
       </c>
-      <c r="L23" s="2">
+      <c r="M23" s="2">
         <v>17.28</v>
       </c>
-      <c r="M23" s="2">
+      <c r="N23" s="2">
         <v>29.66</v>
       </c>
-      <c r="N23" s="2" t="s">
+      <c r="O23" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="O23" s="2">
+      <c r="P23" s="2">
         <v>5.78</v>
       </c>
-      <c r="P23" s="2">
+      <c r="Q23" s="2">
         <v>649.79999999999995</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="16.5">
+    <row r="24" spans="1:17" ht="16.5">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="5">
+        <v>500.18</v>
+      </c>
+      <c r="C24" s="3">
         <v>3309</v>
       </c>
-      <c r="C24" s="3">
+      <c r="D24" s="3">
         <v>472</v>
-      </c>
-      <c r="D24" s="3">
-        <v>2</v>
       </c>
       <c r="E24" s="3">
         <v>2</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="3">
+        <v>2</v>
+      </c>
+      <c r="G24" s="2">
         <v>6.09</v>
       </c>
-      <c r="G24" s="2">
+      <c r="H24" s="2">
         <v>84.04</v>
       </c>
-      <c r="H24" s="2">
-        <v>1</v>
-      </c>
       <c r="I24" s="2">
+        <v>1</v>
+      </c>
+      <c r="J24" s="2">
         <v>9.2100000000000009</v>
       </c>
-      <c r="J24" s="2">
+      <c r="K24" s="2">
         <v>7.31</v>
       </c>
-      <c r="K24" s="2">
+      <c r="L24" s="2">
         <v>3</v>
       </c>
-      <c r="L24" s="2">
+      <c r="M24" s="2">
         <v>2.73</v>
       </c>
-      <c r="M24" s="2">
+      <c r="N24" s="2">
         <v>0</v>
       </c>
-      <c r="N24" s="2">
+      <c r="O24" s="2">
         <v>1.42</v>
       </c>
-      <c r="O24" s="2">
+      <c r="P24" s="2">
         <v>15.31</v>
       </c>
-      <c r="P24" s="2">
+      <c r="Q24" s="2">
         <v>418.58</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="16.5">
+    <row r="25" spans="1:17" ht="16.5">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="5">
+        <v>370.32</v>
+      </c>
+      <c r="C25" s="3">
         <v>3498</v>
       </c>
-      <c r="C25" s="3">
+      <c r="D25" s="3">
         <v>548</v>
       </c>
-      <c r="D25" s="3">
-        <v>1</v>
-      </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F25" s="2">
+      <c r="G25" s="2">
         <v>7.88</v>
       </c>
-      <c r="G25" s="2">
+      <c r="H25" s="2">
         <v>58.31</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="I25" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I25" s="2">
+      <c r="J25" s="2">
         <v>8.43</v>
       </c>
-      <c r="J25" s="2">
+      <c r="K25" s="2">
         <v>3.55</v>
       </c>
-      <c r="K25" s="2">
+      <c r="L25" s="2">
         <v>2</v>
       </c>
-      <c r="L25" s="2">
+      <c r="M25" s="2">
         <v>24.57</v>
       </c>
-      <c r="M25" s="2">
+      <c r="N25" s="2">
         <v>0</v>
       </c>
-      <c r="N25" s="2">
+      <c r="O25" s="2">
         <v>3.35</v>
       </c>
-      <c r="O25" s="2">
+      <c r="P25" s="2">
         <v>19.57</v>
       </c>
-      <c r="P25" s="2">
+      <c r="Q25" s="2">
         <v>274.13</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="16.5">
+    <row r="26" spans="1:17" ht="16.5">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="6">
+        <v>2331.79</v>
+      </c>
+      <c r="C26" s="3">
         <v>57821</v>
       </c>
-      <c r="C26" s="3">
+      <c r="D26" s="3">
         <v>6641</v>
       </c>
-      <c r="D26" s="3">
+      <c r="E26" s="3">
         <v>19</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>12</v>
       </c>
-      <c r="F26" s="2">
+      <c r="G26" s="2">
         <v>23.48</v>
       </c>
-      <c r="G26" s="2">
+      <c r="H26" s="2">
         <v>128.88</v>
       </c>
-      <c r="H26" s="2">
+      <c r="I26" s="2">
         <v>9</v>
       </c>
-      <c r="I26" s="2">
+      <c r="J26" s="2">
         <v>9.19</v>
       </c>
-      <c r="J26" s="2">
+      <c r="K26" s="2">
         <v>2.4</v>
       </c>
-      <c r="K26" s="2">
+      <c r="L26" s="2">
         <v>44</v>
       </c>
-      <c r="L26" s="2">
+      <c r="M26" s="2">
         <v>33.21</v>
       </c>
-      <c r="M26" s="2">
+      <c r="N26" s="2">
         <v>8.16</v>
       </c>
-      <c r="N26" s="2">
+      <c r="O26" s="2">
         <v>7.45</v>
       </c>
-      <c r="O26" s="2">
+      <c r="P26" s="2">
         <v>3.94</v>
       </c>
-      <c r="P26" s="2">
+      <c r="Q26" s="2">
         <v>127.47</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="16.5">
+    <row r="27" spans="1:17" ht="16.5">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="5">
+        <v>523.49</v>
+      </c>
+      <c r="C27" s="3">
         <v>10623</v>
       </c>
-      <c r="C27" s="3">
+      <c r="D27" s="3">
         <v>2258</v>
       </c>
-      <c r="D27" s="3">
+      <c r="E27" s="3">
         <v>6</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3</v>
       </c>
-      <c r="F27" s="2">
+      <c r="G27" s="2">
         <v>19.27</v>
       </c>
-      <c r="G27" s="2">
+      <c r="H27" s="2">
         <v>75.39</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="I27" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I27" s="2">
+      <c r="J27" s="2">
         <v>3.95</v>
       </c>
-      <c r="J27" s="2">
+      <c r="K27" s="2">
         <v>4.26</v>
       </c>
-      <c r="K27" s="2">
+      <c r="L27" s="2">
         <v>5</v>
       </c>
-      <c r="L27" s="2">
+      <c r="M27" s="2">
         <v>9.91</v>
       </c>
-      <c r="M27" s="2">
+      <c r="N27" s="2">
         <v>1.57</v>
       </c>
-      <c r="N27" s="2">
+      <c r="O27" s="2">
         <v>2.74</v>
       </c>
-      <c r="O27" s="2">
+      <c r="P27" s="2">
         <v>8.6300000000000008</v>
       </c>
-      <c r="P27" s="2">
+      <c r="Q27" s="2">
         <v>223.36</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="16.5">
+    <row r="28" spans="1:17" ht="16.5">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="6">
+        <v>1319.68</v>
+      </c>
+      <c r="C28" s="3">
         <v>63554</v>
       </c>
-      <c r="C28" s="3">
+      <c r="D28" s="3">
         <v>11548</v>
       </c>
-      <c r="D28" s="3">
+      <c r="E28" s="3">
         <v>30</v>
       </c>
-      <c r="E28" s="3">
+      <c r="F28" s="3">
         <v>13</v>
       </c>
-      <c r="F28" s="2">
+      <c r="G28" s="2">
         <v>46.49</v>
       </c>
-      <c r="G28" s="2">
+      <c r="H28" s="2">
         <v>79.25</v>
       </c>
-      <c r="H28" s="2">
+      <c r="I28" s="2">
         <v>6</v>
       </c>
-      <c r="I28" s="2">
+      <c r="J28" s="2">
         <v>2.6</v>
       </c>
-      <c r="J28" s="2">
+      <c r="K28" s="2">
         <v>0.96</v>
       </c>
-      <c r="K28" s="2">
+      <c r="L28" s="2">
         <v>80</v>
       </c>
-      <c r="L28" s="2">
+      <c r="M28" s="2">
         <v>15.58</v>
       </c>
-      <c r="M28" s="2">
+      <c r="N28" s="2">
         <v>32.46</v>
       </c>
-      <c r="N28" s="2">
+      <c r="O28" s="2">
         <v>2.95</v>
       </c>
-      <c r="O28" s="2">
+      <c r="P28" s="2">
         <v>2.38</v>
       </c>
-      <c r="P28" s="2">
+      <c r="Q28" s="2">
         <v>97.36</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="16.5">
+    <row r="29" spans="1:17" ht="16.5">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="5">
+        <v>990.28</v>
+      </c>
+      <c r="C29" s="3">
         <v>5205</v>
       </c>
-      <c r="C29" s="3">
+      <c r="D29" s="3">
         <v>987</v>
       </c>
-      <c r="D29" s="3">
-        <v>1</v>
-      </c>
       <c r="E29" s="3">
         <v>1</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2">
         <v>4.4000000000000004</v>
       </c>
-      <c r="G29" s="2">
+      <c r="H29" s="2">
         <v>74.02</v>
       </c>
-      <c r="H29" s="2">
-        <v>1</v>
-      </c>
       <c r="I29" s="2">
+        <v>1</v>
+      </c>
+      <c r="J29" s="2">
         <v>26.83</v>
       </c>
-      <c r="J29" s="2">
+      <c r="K29" s="2">
         <v>6.35</v>
       </c>
-      <c r="K29" s="2">
+      <c r="L29" s="2">
         <v>5</v>
       </c>
-      <c r="L29" s="2">
+      <c r="M29" s="2">
         <v>17.11</v>
       </c>
-      <c r="M29" s="2">
+      <c r="N29" s="2">
         <v>0</v>
       </c>
-      <c r="N29" s="2">
+      <c r="O29" s="2">
         <v>54.06</v>
       </c>
-      <c r="O29" s="2">
+      <c r="P29" s="2">
         <v>12.82</v>
       </c>
-      <c r="P29" s="2">
+      <c r="Q29" s="2">
         <v>465.5</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="16.5">
+    <row r="30" spans="1:17" ht="16.5">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="6">
+        <v>1353.14</v>
+      </c>
+      <c r="C30" s="3">
         <v>47761</v>
       </c>
-      <c r="C30" s="3">
+      <c r="D30" s="3">
         <v>7999</v>
       </c>
-      <c r="D30" s="3">
+      <c r="E30" s="3">
         <v>15</v>
       </c>
-      <c r="E30" s="3">
+      <c r="F30" s="3">
         <v>8</v>
       </c>
-      <c r="F30" s="2">
+      <c r="G30" s="2">
         <v>33.83</v>
       </c>
-      <c r="G30" s="2">
+      <c r="H30" s="2">
         <v>82.34</v>
       </c>
-      <c r="H30" s="2">
+      <c r="I30" s="2">
         <v>7</v>
       </c>
-      <c r="I30" s="2">
+      <c r="J30" s="2">
         <v>9.6999999999999993</v>
       </c>
-      <c r="J30" s="2">
+      <c r="K30" s="2">
         <v>1.62</v>
       </c>
-      <c r="K30" s="2">
+      <c r="L30" s="2">
         <v>17</v>
       </c>
-      <c r="L30" s="2">
+      <c r="M30" s="2">
         <v>17.41</v>
       </c>
-      <c r="M30" s="2">
+      <c r="N30" s="2">
         <v>12.45</v>
       </c>
-      <c r="N30" s="2">
+      <c r="O30" s="2">
         <v>6.4</v>
       </c>
-      <c r="O30" s="2">
+      <c r="P30" s="2">
         <v>20.99</v>
       </c>
-      <c r="P30" s="2">
+      <c r="Q30" s="2">
         <v>133.66999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="16.5">
+    <row r="31" spans="1:17" ht="16.5">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="5">
+        <v>575.89</v>
+      </c>
+      <c r="C31" s="3">
         <v>2709</v>
       </c>
-      <c r="C31" s="3">
+      <c r="D31" s="3">
         <v>237</v>
       </c>
-      <c r="D31" s="3">
+      <c r="E31" s="3">
         <v>2</v>
       </c>
-      <c r="E31" s="3">
-        <v>1</v>
-      </c>
-      <c r="F31" s="2">
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
+      <c r="G31" s="2">
         <v>4.1399999999999997</v>
       </c>
-      <c r="G31" s="2">
+      <c r="H31" s="2">
         <v>96.79</v>
       </c>
-      <c r="H31" s="2">
+      <c r="I31" s="2">
         <v>2</v>
       </c>
-      <c r="I31" s="2">
+      <c r="J31" s="2">
         <v>263.77</v>
       </c>
-      <c r="J31" s="2">
+      <c r="K31" s="2">
         <v>10.28</v>
       </c>
-      <c r="K31" s="2">
+      <c r="L31" s="2">
         <v>4</v>
       </c>
-      <c r="L31" s="2">
+      <c r="M31" s="2">
         <v>33.74</v>
       </c>
-      <c r="M31" s="2">
+      <c r="N31" s="2">
         <v>8.11</v>
       </c>
-      <c r="N31" s="2">
+      <c r="O31" s="2">
         <v>8.52</v>
       </c>
-      <c r="O31" s="2">
+      <c r="P31" s="2">
         <v>53.54</v>
       </c>
-      <c r="P31" s="2">
+      <c r="Q31" s="2">
         <v>551.05999999999995</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="16.5">
+    <row r="32" spans="1:17" ht="16.5">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="6">
+        <v>1024.81</v>
+      </c>
+      <c r="C32" s="3">
         <v>34720</v>
       </c>
-      <c r="C32" s="3">
+      <c r="D32" s="3">
         <v>4520</v>
       </c>
-      <c r="D32" s="3">
+      <c r="E32" s="3">
         <v>12</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>7</v>
       </c>
-      <c r="F32" s="2">
+      <c r="G32" s="2">
         <v>31.46</v>
       </c>
-      <c r="G32" s="2">
+      <c r="H32" s="2">
         <v>107.9</v>
       </c>
-      <c r="H32" s="2">
+      <c r="I32" s="2">
         <v>5</v>
       </c>
-      <c r="I32" s="2">
+      <c r="J32" s="2">
         <v>11.08</v>
       </c>
-      <c r="J32" s="2">
+      <c r="K32" s="2">
         <v>3.28</v>
       </c>
-      <c r="K32" s="2">
+      <c r="L32" s="2">
         <v>26</v>
       </c>
-      <c r="L32" s="2">
+      <c r="M32" s="2">
         <v>26.06</v>
       </c>
-      <c r="M32" s="2">
+      <c r="N32" s="2">
         <v>1.7</v>
       </c>
-      <c r="N32" s="2">
+      <c r="O32" s="2">
         <v>0.27</v>
       </c>
-      <c r="O32" s="2">
+      <c r="P32" s="2">
         <v>15.68</v>
       </c>
-      <c r="P32" s="2">
+      <c r="Q32" s="2">
         <v>167</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="16.5">
+    <row r="33" spans="1:17" ht="16.5">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="5">
+        <v>466.03</v>
+      </c>
+      <c r="C33" s="3">
         <v>3314</v>
       </c>
-      <c r="C33" s="3">
+      <c r="D33" s="3">
         <v>745</v>
       </c>
-      <c r="D33" s="3">
-        <v>1</v>
-      </c>
       <c r="E33" s="3">
         <v>1</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2">
         <v>5.68</v>
       </c>
-      <c r="G33" s="2">
+      <c r="H33" s="2">
         <v>52.7</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="I33" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I33" s="2">
+      <c r="J33" s="2">
         <v>39.659999999999997</v>
       </c>
-      <c r="J33" s="2">
+      <c r="K33" s="2">
         <v>6.76</v>
       </c>
-      <c r="K33" s="2">
+      <c r="L33" s="2">
         <v>3</v>
       </c>
-      <c r="L33" s="2">
+      <c r="M33" s="2">
         <v>5.12</v>
       </c>
-      <c r="M33" s="2">
+      <c r="N33" s="2">
         <v>1.48</v>
       </c>
-      <c r="N33" s="2" t="s">
+      <c r="O33" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="O33" s="2">
+      <c r="P33" s="2">
         <v>12.01</v>
       </c>
-      <c r="P33" s="2">
+      <c r="Q33" s="2">
         <v>710.42</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="16.5">
+    <row r="34" spans="1:17" ht="16.5">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="5">
+        <v>860.1</v>
+      </c>
+      <c r="C34" s="3">
         <v>4023</v>
       </c>
-      <c r="C34" s="3">
+      <c r="D34" s="3">
         <v>329</v>
       </c>
-      <c r="D34" s="3">
-        <v>1</v>
-      </c>
       <c r="E34" s="3">
         <v>1</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="3">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2">
         <v>4.2699999999999996</v>
       </c>
-      <c r="G34" s="2">
+      <c r="H34" s="2">
         <v>73.08</v>
       </c>
-      <c r="H34" s="2">
-        <v>1</v>
-      </c>
       <c r="I34" s="2">
+        <v>1</v>
+      </c>
+      <c r="J34" s="2">
         <v>73.099999999999994</v>
       </c>
-      <c r="J34" s="2">
+      <c r="K34" s="2">
         <v>5.99</v>
       </c>
-      <c r="K34" s="2">
+      <c r="L34" s="2">
         <v>4</v>
       </c>
-      <c r="L34" s="2">
+      <c r="M34" s="2">
         <v>9.35</v>
       </c>
-      <c r="M34" s="2">
+      <c r="N34" s="2">
         <v>3.35</v>
       </c>
-      <c r="N34" s="2">
+      <c r="O34" s="2">
         <v>3.52</v>
       </c>
-      <c r="O34" s="2">
+      <c r="P34" s="2">
         <v>13.17</v>
       </c>
-      <c r="P34" s="2">
+      <c r="Q34" s="2">
         <v>359.06</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="16.5">
+    <row r="35" spans="1:17" ht="16.5">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="5">
+        <v>178.64</v>
+      </c>
+      <c r="C35" s="3">
         <v>6035</v>
       </c>
-      <c r="C35" s="3">
+      <c r="D35" s="3">
         <v>536</v>
       </c>
-      <c r="D35" s="3">
+      <c r="E35" s="3">
         <v>3</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2</v>
       </c>
-      <c r="F35" s="2">
+      <c r="G35" s="2">
         <v>33.71</v>
       </c>
-      <c r="G35" s="2">
+      <c r="H35" s="2">
         <v>89.82</v>
       </c>
-      <c r="H35" s="2">
-        <v>1</v>
-      </c>
-      <c r="I35" s="2" t="s">
+      <c r="I35" s="2">
+        <v>1</v>
+      </c>
+      <c r="J35" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="J35" s="2">
+      <c r="K35" s="2">
         <v>4.03</v>
       </c>
-      <c r="K35" s="2">
+      <c r="L35" s="2">
         <v>10</v>
       </c>
-      <c r="L35" s="2">
+      <c r="M35" s="2">
         <v>13.2</v>
       </c>
-      <c r="M35" s="2">
+      <c r="N35" s="2">
         <v>0.5</v>
       </c>
-      <c r="N35" s="2" t="s">
+      <c r="O35" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="O35" s="2">
+      <c r="P35" s="2">
         <v>0.88</v>
       </c>
-      <c r="P35" s="2">
+      <c r="Q35" s="2">
         <v>114.08</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="16.5">
+    <row r="36" spans="1:17" ht="16.5">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="5">
+        <v>297</v>
+      </c>
+      <c r="C36" s="3">
         <v>2367</v>
       </c>
-      <c r="C36" s="3">
+      <c r="D36" s="3">
         <v>559</v>
       </c>
-      <c r="D36" s="3">
-        <v>1</v>
-      </c>
       <c r="E36" s="3">
         <v>1</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="3">
+        <v>1</v>
+      </c>
+      <c r="G36" s="2">
         <v>7.19</v>
       </c>
-      <c r="G36" s="2">
+      <c r="H36" s="2">
         <v>58</v>
       </c>
-      <c r="H36" s="2">
-        <v>1</v>
-      </c>
       <c r="I36" s="2">
+        <v>1</v>
+      </c>
+      <c r="J36" s="2">
         <v>7.25</v>
       </c>
-      <c r="J36" s="2">
+      <c r="K36" s="2">
         <v>17.8</v>
       </c>
-      <c r="K36" s="2">
+      <c r="L36" s="2">
         <v>2</v>
       </c>
-      <c r="L36" s="2">
+      <c r="M36" s="2">
         <v>5.18</v>
       </c>
-      <c r="M36" s="2">
+      <c r="N36" s="2">
         <v>3.28</v>
       </c>
-      <c r="N36" s="2">
+      <c r="O36" s="2">
         <v>18.34</v>
       </c>
-      <c r="O36" s="2">
+      <c r="P36" s="2">
         <v>17.53</v>
       </c>
-      <c r="P36" s="2">
+      <c r="Q36" s="2">
         <v>728.4</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="16.5">
+    <row r="37" spans="1:17" ht="16.5">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="5">
+        <v>929.84</v>
+      </c>
+      <c r="C37" s="3">
         <v>8694</v>
       </c>
-      <c r="C37" s="3">
+      <c r="D37" s="3">
         <v>968</v>
-      </c>
-      <c r="D37" s="3">
-        <v>2</v>
       </c>
       <c r="E37" s="3">
         <v>2</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="3">
+        <v>2</v>
+      </c>
+      <c r="G37" s="2">
         <v>8.91</v>
       </c>
-      <c r="G37" s="2">
+      <c r="H37" s="2">
         <v>106.95</v>
       </c>
-      <c r="H37" s="2">
+      <c r="I37" s="2">
         <v>3</v>
       </c>
-      <c r="I37" s="2">
+      <c r="J37" s="2">
         <v>11.94</v>
       </c>
-      <c r="J37" s="2">
+      <c r="K37" s="2">
         <v>7.56</v>
       </c>
-      <c r="K37" s="2">
+      <c r="L37" s="2">
         <v>4</v>
       </c>
-      <c r="L37" s="2">
+      <c r="M37" s="2">
         <v>36.72</v>
       </c>
-      <c r="M37" s="2">
+      <c r="N37" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="N37" s="2">
+      <c r="O37" s="2">
         <v>70.739999999999995</v>
       </c>
-      <c r="O37" s="2">
+      <c r="P37" s="2">
         <v>19.62</v>
       </c>
-      <c r="P37" s="2">
+      <c r="Q37" s="2">
         <v>361.41</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="16.5">
+    <row r="38" spans="1:17" ht="16.5">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="5">
+        <v>824.62</v>
+      </c>
+      <c r="C38" s="3">
         <v>2911</v>
       </c>
-      <c r="C38" s="3">
+      <c r="D38" s="3">
         <v>157</v>
       </c>
-      <c r="D38" s="3">
-        <v>1</v>
-      </c>
       <c r="E38" s="3">
         <v>1</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
+      <c r="G38" s="2">
         <v>3.21</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>89.21</v>
       </c>
-      <c r="H38" s="2">
-        <v>1</v>
-      </c>
       <c r="I38" s="2">
+        <v>1</v>
+      </c>
+      <c r="J38" s="2">
         <v>499.75</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>16.63</v>
       </c>
-      <c r="K38" s="2" t="s">
+      <c r="L38" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>20.51</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>0</v>
       </c>
-      <c r="N38" s="2" t="s">
+      <c r="O38" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>5.33</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>591.48</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="16.5">
+    <row r="39" spans="1:17" ht="16.5">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="5">
+        <v>271.62</v>
+      </c>
+      <c r="C39" s="3">
         <v>828</v>
       </c>
-      <c r="C39" s="3">
+      <c r="D39" s="3">
         <v>45</v>
       </c>
-      <c r="D39" s="3">
-        <v>1</v>
-      </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="3">
+        <v>1</v>
+      </c>
+      <c r="F39" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F39" s="2">
+      <c r="G39" s="2">
         <v>2.6</v>
       </c>
-      <c r="G39" s="2">
+      <c r="H39" s="2">
         <v>101.52</v>
       </c>
-      <c r="H39" s="2">
-        <v>1</v>
-      </c>
       <c r="I39" s="2">
+        <v>1</v>
+      </c>
+      <c r="J39" s="2">
         <v>4.3600000000000003</v>
       </c>
-      <c r="J39" s="2">
+      <c r="K39" s="2">
         <v>15.83</v>
       </c>
-      <c r="K39" s="2">
-        <v>1</v>
-      </c>
       <c r="L39" s="2">
+        <v>1</v>
+      </c>
+      <c r="M39" s="2">
         <v>17.32</v>
       </c>
-      <c r="M39" s="2">
+      <c r="N39" s="2">
         <v>0.9</v>
       </c>
-      <c r="N39" s="2">
+      <c r="O39" s="2">
         <v>100</v>
       </c>
-      <c r="O39" s="2">
+      <c r="P39" s="2">
         <v>10.26</v>
       </c>
-      <c r="P39" s="2">
+      <c r="Q39" s="2">
         <v>655.79</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="16.5">
+    <row r="40" spans="1:17" ht="16.5">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="5">
+        <v>603.04</v>
+      </c>
+      <c r="C40" s="3">
         <v>2532</v>
       </c>
-      <c r="C40" s="3">
+      <c r="D40" s="3">
         <v>252</v>
       </c>
-      <c r="D40" s="3">
-        <v>1</v>
-      </c>
       <c r="E40" s="3">
         <v>1</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="3">
+        <v>1</v>
+      </c>
+      <c r="G40" s="2">
         <v>3.88</v>
       </c>
-      <c r="G40" s="2">
+      <c r="H40" s="2">
         <v>81.93</v>
       </c>
-      <c r="H40" s="2">
+      <c r="I40" s="2">
         <v>3</v>
       </c>
-      <c r="I40" s="2">
+      <c r="J40" s="2">
         <v>142.5</v>
       </c>
-      <c r="J40" s="2">
+      <c r="K40" s="2">
         <v>197.88</v>
       </c>
-      <c r="K40" s="2">
-        <v>1</v>
-      </c>
       <c r="L40" s="2">
+        <v>1</v>
+      </c>
+      <c r="M40" s="2">
         <v>40.479999999999997</v>
       </c>
-      <c r="M40" s="2">
+      <c r="N40" s="2">
         <v>0.21</v>
       </c>
-      <c r="N40" s="2">
+      <c r="O40" s="2">
         <v>18.690000000000001</v>
       </c>
-      <c r="O40" s="2">
+      <c r="P40" s="2">
         <v>33.090000000000003</v>
       </c>
-      <c r="P40" s="2">
+      <c r="Q40" s="2">
         <v>851.33</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="16.5">
+    <row r="41" spans="1:17" ht="16.5">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="5">
+        <v>985.35</v>
+      </c>
+      <c r="C41" s="3">
         <v>10049</v>
       </c>
-      <c r="C41" s="3">
+      <c r="D41" s="3">
         <v>841</v>
       </c>
-      <c r="D41" s="3">
+      <c r="E41" s="3">
         <v>7</v>
       </c>
-      <c r="E41" s="3">
-        <v>1</v>
-      </c>
-      <c r="F41" s="2">
+      <c r="F41" s="3">
+        <v>1</v>
+      </c>
+      <c r="G41" s="2">
         <v>10.050000000000001</v>
       </c>
-      <c r="G41" s="2">
+      <c r="H41" s="2">
         <v>94.51</v>
       </c>
-      <c r="H41" s="2">
+      <c r="I41" s="2">
         <v>3</v>
       </c>
-      <c r="I41" s="2">
+      <c r="J41" s="2">
         <v>50.03</v>
       </c>
-      <c r="J41" s="2">
+      <c r="K41" s="2">
         <v>4.63</v>
       </c>
-      <c r="K41" s="2">
+      <c r="L41" s="2">
         <v>9</v>
       </c>
-      <c r="L41" s="2">
+      <c r="M41" s="2">
         <v>16.86</v>
       </c>
-      <c r="M41" s="2">
+      <c r="N41" s="2">
         <v>5.34</v>
       </c>
-      <c r="N41" s="2">
+      <c r="O41" s="2">
         <v>16.66</v>
       </c>
-      <c r="O41" s="2">
+      <c r="P41" s="2">
         <v>15.29</v>
       </c>
-      <c r="P41" s="2">
+      <c r="Q41" s="2">
         <v>317.55</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="16.5">
+    <row r="42" spans="1:17" ht="16.5">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="5">
+        <v>325.31</v>
+      </c>
+      <c r="C42" s="3">
         <v>24075</v>
       </c>
-      <c r="C42" s="3">
+      <c r="D42" s="3">
         <v>2481</v>
       </c>
-      <c r="D42" s="3">
+      <c r="E42" s="3">
         <v>4</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>3</v>
       </c>
-      <c r="F42" s="2">
+      <c r="G42" s="2">
         <v>76.040000000000006</v>
       </c>
-      <c r="G42" s="2">
+      <c r="H42" s="2">
         <v>98.95</v>
       </c>
-      <c r="H42" s="2">
+      <c r="I42" s="2">
         <v>4</v>
       </c>
-      <c r="I42" s="2">
+      <c r="J42" s="2">
         <v>3.1</v>
       </c>
-      <c r="J42" s="2">
+      <c r="K42" s="2">
         <v>0.51</v>
       </c>
-      <c r="K42" s="2">
+      <c r="L42" s="2">
         <v>23</v>
       </c>
-      <c r="L42" s="2">
+      <c r="M42" s="2">
         <v>19.23</v>
       </c>
-      <c r="M42" s="2">
+      <c r="N42" s="2">
         <v>1.46</v>
       </c>
-      <c r="N42" s="2">
+      <c r="O42" s="2">
         <v>1.54</v>
       </c>
-      <c r="O42" s="2">
+      <c r="P42" s="2">
         <v>12.27</v>
       </c>
-      <c r="P42" s="2">
+      <c r="Q42" s="2">
         <v>78.569999999999993</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="16.5">
+    <row r="43" spans="1:17" ht="16.5">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="5">
+        <v>716.95</v>
+      </c>
+      <c r="C43" s="3">
         <v>7258</v>
       </c>
-      <c r="C43" s="3">
+      <c r="D43" s="3">
         <v>1616</v>
       </c>
-      <c r="D43" s="3">
+      <c r="E43" s="3">
         <v>2</v>
       </c>
-      <c r="E43" s="3">
-        <v>1</v>
-      </c>
-      <c r="F43" s="2">
+      <c r="F43" s="3">
+        <v>1</v>
+      </c>
+      <c r="G43" s="2">
         <v>8.4600000000000009</v>
       </c>
-      <c r="G43" s="2">
+      <c r="H43" s="2">
         <v>69.010000000000005</v>
       </c>
-      <c r="H43" s="2">
+      <c r="I43" s="2">
         <v>2</v>
       </c>
-      <c r="I43" s="2">
+      <c r="J43" s="2">
         <v>0.36</v>
       </c>
-      <c r="J43" s="2">
+      <c r="K43" s="2">
         <v>4.97</v>
       </c>
-      <c r="K43" s="2">
+      <c r="L43" s="2">
         <v>9</v>
       </c>
-      <c r="L43" s="2">
+      <c r="M43" s="2">
         <v>2.52</v>
       </c>
-      <c r="M43" s="2">
+      <c r="N43" s="2">
         <v>1.68</v>
       </c>
-      <c r="N43" s="2">
+      <c r="O43" s="2">
         <v>6.7</v>
       </c>
-      <c r="O43" s="2">
+      <c r="P43" s="2">
         <v>13.86</v>
       </c>
-      <c r="P43" s="2">
+      <c r="Q43" s="2">
         <v>423.25</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="16.5">
+    <row r="44" spans="1:17" ht="16.5">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="5">
+        <v>560.66</v>
+      </c>
+      <c r="C44" s="3">
         <v>21516</v>
       </c>
-      <c r="C44" s="3">
+      <c r="D44" s="3">
         <v>4607</v>
       </c>
-      <c r="D44" s="3">
+      <c r="E44" s="3">
         <v>6</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4</v>
       </c>
-      <c r="F44" s="2">
+      <c r="G44" s="2">
         <v>33.590000000000003</v>
       </c>
-      <c r="G44" s="2">
+      <c r="H44" s="2">
         <v>79.86</v>
       </c>
-      <c r="H44" s="2">
+      <c r="I44" s="2">
         <v>2</v>
       </c>
-      <c r="I44" s="2">
+      <c r="J44" s="2">
         <v>4.1399999999999997</v>
       </c>
-      <c r="J44" s="2">
+      <c r="K44" s="2">
         <v>3.44</v>
       </c>
-      <c r="K44" s="2">
+      <c r="L44" s="2">
         <v>14</v>
       </c>
-      <c r="L44" s="2">
+      <c r="M44" s="2">
         <v>13.77</v>
       </c>
-      <c r="M44" s="2">
+      <c r="N44" s="2">
         <v>9.2100000000000009</v>
       </c>
-      <c r="N44" s="2">
+      <c r="O44" s="2">
         <v>2.58</v>
       </c>
-      <c r="O44" s="2">
+      <c r="P44" s="2">
         <v>8.75</v>
       </c>
-      <c r="P44" s="2">
+      <c r="Q44" s="2">
         <v>184.69</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="16.5">
+    <row r="45" spans="1:17" ht="16.5">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="6">
+        <v>1018.36</v>
+      </c>
+      <c r="C45" s="3">
         <v>11868</v>
       </c>
-      <c r="C45" s="3">
+      <c r="D45" s="3">
         <v>1236</v>
       </c>
-      <c r="D45" s="3">
+      <c r="E45" s="3">
         <v>3</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2</v>
       </c>
-      <c r="F45" s="2">
+      <c r="G45" s="2">
         <v>10.19</v>
       </c>
-      <c r="G45" s="2">
+      <c r="H45" s="2">
         <v>61.46</v>
       </c>
-      <c r="H45" s="2">
+      <c r="I45" s="2">
         <v>2</v>
       </c>
-      <c r="I45" s="2">
+      <c r="J45" s="2">
         <v>5.61</v>
       </c>
-      <c r="J45" s="2">
+      <c r="K45" s="2">
         <v>6.52</v>
       </c>
-      <c r="K45" s="2">
+      <c r="L45" s="2">
         <v>8</v>
       </c>
-      <c r="L45" s="2">
+      <c r="M45" s="2">
         <v>4.78</v>
       </c>
-      <c r="M45" s="2">
+      <c r="N45" s="2">
         <v>7.68</v>
       </c>
-      <c r="N45" s="2">
+      <c r="O45" s="2">
         <v>0.03</v>
       </c>
-      <c r="O45" s="2">
+      <c r="P45" s="2">
         <v>7.21</v>
       </c>
-      <c r="P45" s="2">
+      <c r="Q45" s="2">
         <v>257.88</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="16.5">
+    <row r="46" spans="1:17" ht="16.5">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="5">
+        <v>600.23</v>
+      </c>
+      <c r="C46" s="3">
         <v>7326</v>
       </c>
-      <c r="C46" s="3">
+      <c r="D46" s="3">
         <v>754</v>
       </c>
-      <c r="D46" s="3">
+      <c r="E46" s="3">
         <v>3</v>
       </c>
-      <c r="E46" s="3">
-        <v>1</v>
-      </c>
-      <c r="F46" s="2">
+      <c r="F46" s="3">
+        <v>1</v>
+      </c>
+      <c r="G46" s="2">
         <v>11.5</v>
       </c>
-      <c r="G46" s="2">
+      <c r="H46" s="2">
         <v>80.78</v>
       </c>
-      <c r="H46" s="2">
+      <c r="I46" s="2">
         <v>3</v>
       </c>
-      <c r="I46" s="2">
+      <c r="J46" s="2">
         <v>5.08</v>
       </c>
-      <c r="J46" s="2">
+      <c r="K46" s="2">
         <v>3.82</v>
       </c>
-      <c r="K46" s="2">
+      <c r="L46" s="2">
         <v>6</v>
       </c>
-      <c r="L46" s="2">
+      <c r="M46" s="2">
         <v>4.7699999999999996</v>
       </c>
-      <c r="M46" s="2">
+      <c r="N46" s="2">
         <v>3.75</v>
       </c>
-      <c r="N46" s="2">
+      <c r="O46" s="2">
         <v>0.39</v>
       </c>
-      <c r="O46" s="2">
+      <c r="P46" s="2">
         <v>15.78</v>
       </c>
-      <c r="P46" s="2">
+      <c r="Q46" s="2">
         <v>522.75</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="16.5">
+    <row r="47" spans="1:17" ht="16.5">
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="5">
+        <v>379.79</v>
+      </c>
+      <c r="C47" s="3">
         <v>2551</v>
       </c>
-      <c r="C47" s="3">
+      <c r="D47" s="3">
         <v>272</v>
       </c>
-      <c r="D47" s="3">
-        <v>1</v>
-      </c>
       <c r="E47" s="3">
         <v>1</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47" s="3">
+        <v>1</v>
+      </c>
+      <c r="G47" s="2">
         <v>6.58</v>
       </c>
-      <c r="G47" s="2">
+      <c r="H47" s="2">
         <v>76.959999999999994</v>
       </c>
-      <c r="H47" s="2">
-        <v>1</v>
-      </c>
       <c r="I47" s="2">
+        <v>1</v>
+      </c>
+      <c r="J47" s="2">
         <v>8.3699999999999992</v>
       </c>
-      <c r="J47" s="2">
+      <c r="K47" s="2">
         <v>12.21</v>
       </c>
-      <c r="K47" s="2">
-        <v>1</v>
-      </c>
       <c r="L47" s="2">
+        <v>1</v>
+      </c>
+      <c r="M47" s="2">
         <v>9.61</v>
       </c>
-      <c r="M47" s="2">
+      <c r="N47" s="2">
         <v>0</v>
       </c>
-      <c r="N47" s="2">
+      <c r="O47" s="2">
         <v>2.63</v>
       </c>
-      <c r="O47" s="2">
+      <c r="P47" s="2">
         <v>14.87</v>
       </c>
-      <c r="P47" s="2">
+      <c r="Q47" s="2">
         <v>459.31</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="16.5">
+    <row r="48" spans="1:17" ht="16.5">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="5">
+        <v>599.82000000000005</v>
+      </c>
+      <c r="C48" s="3">
         <v>4557</v>
       </c>
-      <c r="C48" s="3">
+      <c r="D48" s="3">
         <v>368</v>
       </c>
-      <c r="D48" s="3">
-        <v>1</v>
-      </c>
       <c r="E48" s="3">
         <v>1</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48" s="3">
+        <v>1</v>
+      </c>
+      <c r="G48" s="2">
         <v>6.84</v>
       </c>
-      <c r="G48" s="2">
+      <c r="H48" s="2">
         <v>52.41</v>
       </c>
-      <c r="H48" s="2">
+      <c r="I48" s="2">
         <v>2</v>
       </c>
-      <c r="I48" s="2">
+      <c r="J48" s="2">
         <v>11.07</v>
       </c>
-      <c r="J48" s="2">
+      <c r="K48" s="2">
         <v>4.33</v>
       </c>
-      <c r="K48" s="2">
+      <c r="L48" s="2">
         <v>2</v>
       </c>
-      <c r="L48" s="2">
+      <c r="M48" s="2">
         <v>11.72</v>
       </c>
-      <c r="M48" s="2">
+      <c r="N48" s="2">
         <v>4.49</v>
       </c>
-      <c r="N48" s="2" t="s">
+      <c r="O48" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="O48" s="2">
+      <c r="P48" s="2">
         <v>7.66</v>
       </c>
-      <c r="P48" s="2">
+      <c r="Q48" s="2">
         <v>324.89</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="16.5">
+    <row r="49" spans="1:17" ht="16.5">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" s="6">
+        <v>1693.91</v>
+      </c>
+      <c r="C49" s="3">
         <v>15652</v>
       </c>
-      <c r="C49" s="3">
+      <c r="D49" s="3">
         <v>1648</v>
       </c>
-      <c r="D49" s="3">
+      <c r="E49" s="3">
         <v>4</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>5</v>
       </c>
-      <c r="F49" s="2">
+      <c r="G49" s="2">
         <v>8.99</v>
       </c>
-      <c r="G49" s="2">
+      <c r="H49" s="2">
         <v>96.29</v>
       </c>
-      <c r="H49" s="2">
+      <c r="I49" s="2">
         <v>5</v>
       </c>
-      <c r="I49" s="2">
+      <c r="J49" s="2">
         <v>21.35</v>
       </c>
-      <c r="J49" s="2">
+      <c r="K49" s="2">
         <v>3.42</v>
       </c>
-      <c r="K49" s="2">
+      <c r="L49" s="2">
         <v>10</v>
       </c>
-      <c r="L49" s="2">
+      <c r="M49" s="2">
         <v>9.18</v>
       </c>
-      <c r="M49" s="2">
+      <c r="N49" s="2">
         <v>4.68</v>
       </c>
-      <c r="N49" s="2">
+      <c r="O49" s="2">
         <v>8.6300000000000008</v>
       </c>
-      <c r="O49" s="2">
+      <c r="P49" s="2">
         <v>14.37</v>
       </c>
-      <c r="P49" s="2">
+      <c r="Q49" s="2">
         <v>424.43</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="16.5">
+    <row r="50" spans="1:17" ht="16.5">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="6">
+        <v>1014.87</v>
+      </c>
+      <c r="C50" s="3">
         <v>10860</v>
       </c>
-      <c r="C50" s="3">
+      <c r="D50" s="3">
         <v>893</v>
       </c>
-      <c r="D50" s="3">
+      <c r="E50" s="3">
         <v>5</v>
       </c>
-      <c r="E50" s="3">
-        <v>1</v>
-      </c>
-      <c r="F50" s="2">
+      <c r="F50" s="3">
+        <v>1</v>
+      </c>
+      <c r="G50" s="2">
         <v>10.55</v>
       </c>
-      <c r="G50" s="2">
+      <c r="H50" s="2">
         <v>71.099999999999994</v>
       </c>
-      <c r="H50" s="2">
-        <v>1</v>
-      </c>
       <c r="I50" s="2">
+        <v>1</v>
+      </c>
+      <c r="J50" s="2">
         <v>1.18</v>
       </c>
-      <c r="J50" s="2">
+      <c r="K50" s="2">
         <v>3.17</v>
       </c>
-      <c r="K50" s="2">
+      <c r="L50" s="2">
         <v>4</v>
       </c>
-      <c r="L50" s="2">
+      <c r="M50" s="2">
         <v>52.07</v>
       </c>
-      <c r="M50" s="2">
+      <c r="N50" s="2">
         <v>0.7</v>
       </c>
-      <c r="N50" s="2" t="s">
+      <c r="O50" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="O50" s="2">
+      <c r="P50" s="2">
         <v>14.41</v>
       </c>
-      <c r="P50" s="2">
+      <c r="Q50" s="2">
         <v>291.41000000000003</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="16.5">
+    <row r="51" spans="1:17" ht="16.5">
       <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="5">
+        <v>683.45</v>
+      </c>
+      <c r="C51" s="3">
         <v>2733</v>
       </c>
-      <c r="C51" s="3">
+      <c r="D51" s="3">
         <v>351</v>
       </c>
-      <c r="D51" s="3">
+      <c r="E51" s="3">
         <v>2</v>
       </c>
-      <c r="E51" s="3">
-        <v>1</v>
-      </c>
-      <c r="F51" s="2">
+      <c r="F51" s="3">
+        <v>1</v>
+      </c>
+      <c r="G51" s="2">
         <v>3.8</v>
       </c>
-      <c r="G51" s="2">
+      <c r="H51" s="2">
         <v>97.26</v>
       </c>
-      <c r="H51" s="2">
-        <v>1</v>
-      </c>
       <c r="I51" s="2">
+        <v>1</v>
+      </c>
+      <c r="J51" s="2">
         <v>3.54</v>
       </c>
-      <c r="J51" s="2">
+      <c r="K51" s="2">
         <v>12.21</v>
       </c>
-      <c r="K51" s="2">
+      <c r="L51" s="2">
         <v>6</v>
       </c>
-      <c r="L51" s="2">
+      <c r="M51" s="2">
         <v>5.47</v>
       </c>
-      <c r="M51" s="2">
+      <c r="N51" s="2">
         <v>2.72</v>
       </c>
-      <c r="N51" s="2">
+      <c r="O51" s="2">
         <v>2.02</v>
       </c>
-      <c r="O51" s="2">
+      <c r="P51" s="2">
         <v>50.59</v>
       </c>
-      <c r="P51" s="2">
+      <c r="Q51" s="2">
         <v>609.29</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="16.5">
+    <row r="52" spans="1:17" ht="16.5">
       <c r="A52" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="5">
+        <v>589.67999999999995</v>
+      </c>
+      <c r="C52" s="3">
         <v>3757</v>
       </c>
-      <c r="C52" s="3">
+      <c r="D52" s="3">
         <v>343</v>
       </c>
-      <c r="D52" s="3">
-        <v>1</v>
-      </c>
       <c r="E52" s="3">
+        <v>1</v>
+      </c>
+      <c r="F52" s="3">
         <v>2</v>
       </c>
-      <c r="F52" s="2">
+      <c r="G52" s="2">
         <v>5.77</v>
       </c>
-      <c r="G52" s="2">
+      <c r="H52" s="2">
         <v>99.41</v>
       </c>
-      <c r="H52" s="2">
+      <c r="I52" s="2">
         <v>2</v>
       </c>
-      <c r="I52" s="2">
+      <c r="J52" s="2">
         <v>21.17</v>
       </c>
-      <c r="J52" s="2">
+      <c r="K52" s="2">
         <v>6.73</v>
       </c>
-      <c r="K52" s="2">
+      <c r="L52" s="2">
         <v>2</v>
       </c>
-      <c r="L52" s="2">
+      <c r="M52" s="2">
         <v>57.33</v>
       </c>
-      <c r="M52" s="2">
+      <c r="N52" s="2">
         <v>0.52</v>
       </c>
-      <c r="N52" s="2" t="s">
+      <c r="O52" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="O52" s="2">
+      <c r="P52" s="2">
         <v>9.7200000000000006</v>
       </c>
-      <c r="P52" s="2">
+      <c r="Q52" s="2">
         <v>558.96</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="16.5">
+    <row r="53" spans="1:17" ht="16.5">
       <c r="A53" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" s="5">
+        <v>375.57</v>
+      </c>
+      <c r="C53" s="3">
         <v>1580</v>
       </c>
-      <c r="C53" s="3">
+      <c r="D53" s="3">
         <v>167</v>
       </c>
-      <c r="D53" s="3">
-        <v>1</v>
-      </c>
       <c r="E53" s="3">
         <v>1</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F53" s="3">
+        <v>1</v>
+      </c>
+      <c r="G53" s="2">
         <v>3.9</v>
       </c>
-      <c r="G53" s="2">
+      <c r="H53" s="2">
         <v>65.760000000000005</v>
       </c>
-      <c r="H53" s="2">
-        <v>1</v>
-      </c>
       <c r="I53" s="2">
+        <v>1</v>
+      </c>
+      <c r="J53" s="2">
         <v>6.38</v>
       </c>
-      <c r="J53" s="2">
+      <c r="K53" s="2">
         <v>13.13</v>
       </c>
-      <c r="K53" s="2">
-        <v>1</v>
-      </c>
       <c r="L53" s="2">
+        <v>1</v>
+      </c>
+      <c r="M53" s="2">
         <v>19.89</v>
       </c>
-      <c r="M53" s="2">
+      <c r="N53" s="2">
         <v>5.0999999999999996</v>
       </c>
-      <c r="N53" s="2" t="s">
+      <c r="O53" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="O53" s="2">
+      <c r="P53" s="2">
         <v>4.54</v>
       </c>
-      <c r="P53" s="2">
+      <c r="Q53" s="2">
         <v>499.63</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="16.5">
+    <row r="54" spans="1:17" ht="16.5">
       <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="6">
+        <v>1562.08</v>
+      </c>
+      <c r="C54" s="3">
         <v>12559</v>
       </c>
-      <c r="C54" s="3">
+      <c r="D54" s="3">
         <v>1864</v>
       </c>
-      <c r="D54" s="3">
+      <c r="E54" s="3">
         <v>4</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3</v>
       </c>
-      <c r="F54" s="2">
+      <c r="G54" s="2">
         <v>6.64</v>
       </c>
-      <c r="G54" s="2">
+      <c r="H54" s="2">
         <v>55.16</v>
       </c>
-      <c r="H54" s="2">
+      <c r="I54" s="2">
         <v>4</v>
       </c>
-      <c r="I54" s="2">
+      <c r="J54" s="2">
         <v>9.41</v>
       </c>
-      <c r="J54" s="2">
+      <c r="K54" s="2">
         <v>5.98</v>
       </c>
-      <c r="K54" s="2">
+      <c r="L54" s="2">
         <v>4</v>
       </c>
-      <c r="L54" s="2">
+      <c r="M54" s="2">
         <v>5.07</v>
       </c>
-      <c r="M54" s="2">
+      <c r="N54" s="2">
         <v>2.2799999999999998</v>
       </c>
-      <c r="N54" s="2" t="s">
+      <c r="O54" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="O54" s="2">
+      <c r="P54" s="2">
         <v>13.37</v>
       </c>
-      <c r="P54" s="2">
+      <c r="Q54" s="2">
         <v>411.49</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="16.5">
+    <row r="55" spans="1:17" ht="16.5">
       <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55" s="5">
+        <v>277.38</v>
+      </c>
+      <c r="C55" s="3">
         <v>704</v>
       </c>
-      <c r="C55" s="3">
+      <c r="D55" s="3">
         <v>88</v>
       </c>
-      <c r="D55" s="3">
-        <v>1</v>
-      </c>
-      <c r="E55" s="3" t="s">
+      <c r="E55" s="3">
+        <v>1</v>
+      </c>
+      <c r="F55" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F55" s="2">
+      <c r="G55" s="2">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G55" s="2">
+      <c r="H55" s="2">
         <v>79.63</v>
       </c>
-      <c r="H55" s="2">
+      <c r="I55" s="2">
         <v>2</v>
       </c>
-      <c r="I55" s="2">
+      <c r="J55" s="2">
         <v>42.89</v>
       </c>
-      <c r="J55" s="2" t="s">
+      <c r="K55" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="K55" s="2">
-        <v>1</v>
-      </c>
       <c r="L55" s="2">
+        <v>1</v>
+      </c>
+      <c r="M55" s="2">
         <v>4.34</v>
       </c>
-      <c r="M55" s="2">
+      <c r="N55" s="2">
         <v>0.23</v>
       </c>
-      <c r="N55" s="2" t="s">
+      <c r="O55" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="O55" s="2">
+      <c r="P55" s="2">
         <v>1.31</v>
       </c>
-      <c r="P55" s="2">
+      <c r="Q55" s="2">
         <v>551.59</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="16.5">
+    <row r="56" spans="1:17" ht="16.5">
       <c r="A56" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56" s="5">
+        <v>649.79</v>
+      </c>
+      <c r="C56" s="3">
         <v>3912</v>
       </c>
-      <c r="C56" s="3">
+      <c r="D56" s="3">
         <v>243</v>
       </c>
-      <c r="D56" s="3">
-        <v>1</v>
-      </c>
       <c r="E56" s="3">
         <v>1</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F56" s="3">
+        <v>1</v>
+      </c>
+      <c r="G56" s="2">
         <v>5.47</v>
       </c>
-      <c r="G56" s="2">
+      <c r="H56" s="2">
         <v>49.15</v>
       </c>
-      <c r="H56" s="2">
-        <v>1</v>
-      </c>
       <c r="I56" s="2">
+        <v>1</v>
+      </c>
+      <c r="J56" s="2">
         <v>16.79</v>
       </c>
-      <c r="J56" s="2">
+      <c r="K56" s="2">
         <v>6.18</v>
       </c>
-      <c r="K56" s="2">
+      <c r="L56" s="2">
         <v>4</v>
       </c>
-      <c r="L56" s="2">
+      <c r="M56" s="2">
         <v>5.86</v>
       </c>
-      <c r="M56" s="2">
+      <c r="N56" s="2">
         <v>0.65</v>
       </c>
-      <c r="N56" s="2" t="s">
+      <c r="O56" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="O56" s="2">
+      <c r="P56" s="2">
         <v>7.42</v>
       </c>
-      <c r="P56" s="2">
+      <c r="Q56" s="2">
         <v>368.07</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="16.5">
+    <row r="57" spans="1:17" ht="16.5">
       <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57" s="5">
+        <v>495.92</v>
+      </c>
+      <c r="C57" s="3">
         <v>407</v>
       </c>
-      <c r="C57" s="3">
+      <c r="D57" s="3">
         <v>34</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F57" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G57" s="2">
         <v>0.68</v>
       </c>
-      <c r="G57" s="2">
+      <c r="H57" s="2">
         <v>92.86</v>
       </c>
-      <c r="H57" s="2">
-        <v>1</v>
-      </c>
-      <c r="I57" s="2" t="s">
+      <c r="I57" s="2">
+        <v>1</v>
+      </c>
+      <c r="J57" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="J57" s="2">
+      <c r="K57" s="2">
         <v>51.74</v>
       </c>
-      <c r="K57" s="2" t="s">
+      <c r="L57" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L57" s="2">
+      <c r="M57" s="2">
         <v>2.38</v>
       </c>
-      <c r="M57" s="2">
+      <c r="N57" s="2">
         <v>0</v>
       </c>
-      <c r="N57" s="2" t="s">
+      <c r="O57" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="O57" s="2">
+      <c r="P57" s="2">
         <v>5.65</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1050.1400000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="16.5">
+    <row r="58" spans="1:17" ht="16.5">
       <c r="A58" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58" s="5">
+        <v>380.85</v>
+      </c>
+      <c r="C58" s="3">
         <v>333</v>
       </c>
-      <c r="C58" s="3">
+      <c r="D58" s="3">
         <v>30</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F58" s="2">
+      <c r="F58" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G58" s="2">
         <v>0.81</v>
       </c>
-      <c r="G58" s="2">
+      <c r="H58" s="2">
         <v>100</v>
       </c>
-      <c r="H58" s="2">
-        <v>1</v>
-      </c>
-      <c r="I58" s="2" t="s">
+      <c r="I58" s="2">
+        <v>1</v>
+      </c>
+      <c r="J58" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="J58" s="2">
+      <c r="K58" s="2">
         <v>19.13</v>
       </c>
-      <c r="K58" s="2">
-        <v>1</v>
-      </c>
       <c r="L58" s="2">
+        <v>1</v>
+      </c>
+      <c r="M58" s="2">
         <v>4.5199999999999996</v>
       </c>
-      <c r="M58" s="2">
+      <c r="N58" s="2">
         <v>0</v>
       </c>
-      <c r="N58" s="2" t="s">
+      <c r="O58" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="O58" s="2">
+      <c r="P58" s="2">
         <v>0</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1007.11</v>
       </c>
     </row>
